--- a/Multiknapsack/results/random_recourse/singlecut/M50_N100_T50_a50_ccg.xlsx
+++ b/Multiknapsack/results/random_recourse/singlecut/M50_N100_T50_a50_ccg.xlsx
@@ -477,7 +477,7 @@
         <v>-583.0449702547292</v>
       </c>
       <c r="C2">
-        <v>4667.385945025</v>
+        <v>4914.829163753</v>
       </c>
       <c r="D2">
         <v>22</v>
@@ -506,7 +506,7 @@
         <v>-584.7504428288908</v>
       </c>
       <c r="C3">
-        <v>4665.993112015</v>
+        <v>4797.50125117</v>
       </c>
       <c r="D3">
         <v>22</v>
@@ -532,28 +532,28 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-591.9840573771119</v>
+        <v>-591.9841214163642</v>
       </c>
       <c r="C4">
-        <v>4932.347961363</v>
+        <v>4697.033793083</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>1159300</v>
+        <v>1104100</v>
       </c>
       <c r="H4">
-        <v>1160313</v>
+        <v>1105060</v>
       </c>
       <c r="I4">
-        <v>1050</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -561,28 +561,28 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-604.080650204849</v>
+        <v>-604.0945475527881</v>
       </c>
       <c r="C5">
-        <v>4882.792251666</v>
+        <v>4406.873358891</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>1159300</v>
+        <v>1104100</v>
       </c>
       <c r="H5">
-        <v>1160313</v>
+        <v>1105060</v>
       </c>
       <c r="I5">
-        <v>1050</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -593,7 +593,7 @@
         <v>-583.8372656089525</v>
       </c>
       <c r="C6">
-        <v>4484.523334842</v>
+        <v>4549.478829436</v>
       </c>
       <c r="D6">
         <v>21</v>
@@ -619,28 +619,28 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-572.5503619636811</v>
+        <v>-572.5557115783797</v>
       </c>
       <c r="C7">
-        <v>4827.843336942</v>
+        <v>4682.548722541</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7">
-        <v>1159300</v>
+        <v>1104100</v>
       </c>
       <c r="H7">
-        <v>1160313</v>
+        <v>1105060</v>
       </c>
       <c r="I7">
-        <v>1050</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -651,7 +651,7 @@
         <v>-572.2414784366563</v>
       </c>
       <c r="C8">
-        <v>4573.43186372</v>
+        <v>4957.030588994</v>
       </c>
       <c r="D8">
         <v>21</v>
@@ -680,7 +680,7 @@
         <v>-587.0002262689902</v>
       </c>
       <c r="C9">
-        <v>3454.057488391</v>
+        <v>3781.749956163</v>
       </c>
       <c r="D9">
         <v>19</v>
@@ -706,28 +706,28 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-580.8144365459971</v>
+        <v>-580.8260232881732</v>
       </c>
       <c r="C10">
-        <v>4809.610619106</v>
+        <v>4581.330750968</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
       <c r="F10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>1159300</v>
+        <v>1104100</v>
       </c>
       <c r="H10">
-        <v>1160313</v>
+        <v>1105060</v>
       </c>
       <c r="I10">
-        <v>1050</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -735,28 +735,28 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-576.6464342929337</v>
+        <v>-576.6504665690934</v>
       </c>
       <c r="C11">
-        <v>4937.400485703</v>
+        <v>4869.510149776</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11">
-        <v>1159300</v>
+        <v>1104100</v>
       </c>
       <c r="H11">
-        <v>1160313</v>
+        <v>1105060</v>
       </c>
       <c r="I11">
-        <v>1050</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -766,7 +766,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -800,7 +800,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>11.331088143304688</v>
+        <v>11.192319141388793</v>
       </c>
       <c r="E2">
         <v>78.68386</v>
@@ -817,7 +817,7 @@
         <v>0.0998698496964894</v>
       </c>
       <c r="D3">
-        <v>15.688125697882324</v>
+        <v>16.634512739554932</v>
       </c>
       <c r="E3">
         <v>19.63673</v>
@@ -834,7 +834,7 @@
         <v>0.09849136672323361</v>
       </c>
       <c r="D4">
-        <v>25.141390275453613</v>
+        <v>23.524087273709227</v>
       </c>
       <c r="E4">
         <v>13.93444</v>
@@ -851,7 +851,7 @@
         <v>0.0948057940504321</v>
       </c>
       <c r="D5">
-        <v>37.30016673306079</v>
+        <v>36.70500959259631</v>
       </c>
       <c r="E5">
         <v>11.37168</v>
@@ -868,7 +868,7 @@
         <v>0.09987603891454995</v>
       </c>
       <c r="D6">
-        <v>40.16321150327527</v>
+        <v>40.19864423883911</v>
       </c>
       <c r="E6">
         <v>6.21202</v>
@@ -885,7 +885,7 @@
         <v>0.0998311205433262</v>
       </c>
       <c r="D7">
-        <v>53.503292194409184</v>
+        <v>51.646631901959964</v>
       </c>
       <c r="E7">
         <v>5.74649</v>
@@ -902,7 +902,7 @@
         <v>0.09987825297879123</v>
       </c>
       <c r="D8">
-        <v>61.26681994162036</v>
+        <v>63.65109719087366</v>
       </c>
       <c r="E8">
         <v>3.93679</v>
@@ -919,7 +919,7 @@
         <v>0.09234964755446391</v>
       </c>
       <c r="D9">
-        <v>72.27591457173853</v>
+        <v>83.49275623622485</v>
       </c>
       <c r="E9">
         <v>2.85838</v>
@@ -936,7 +936,7 @@
         <v>0.09913696325626416</v>
       </c>
       <c r="D10">
-        <v>89.54491993776978</v>
+        <v>94.65727800624512</v>
       </c>
       <c r="E10">
         <v>1.73301</v>
@@ -953,7 +953,7 @@
         <v>0.09960190194481255</v>
       </c>
       <c r="D11">
-        <v>104.32403206512585</v>
+        <v>115.43136778087086</v>
       </c>
       <c r="E11">
         <v>1.72792</v>
@@ -970,7 +970,7 @@
         <v>0.09953114994392279</v>
       </c>
       <c r="D12">
-        <v>119.76492691535022</v>
+        <v>134.51441885189672</v>
       </c>
       <c r="E12">
         <v>1.2802</v>
@@ -987,7 +987,7 @@
         <v>0.09862447350704143</v>
       </c>
       <c r="D13">
-        <v>135.0595688570305</v>
+        <v>147.1609876518485</v>
       </c>
       <c r="E13">
         <v>1.01464</v>
@@ -1004,7 +1004,7 @@
         <v>0.09962724515063348</v>
       </c>
       <c r="D14">
-        <v>158.8340307675188</v>
+        <v>176.58357908419885</v>
       </c>
       <c r="E14">
         <v>0.71153</v>
@@ -1021,7 +1021,7 @@
         <v>0.09871548208915829</v>
       </c>
       <c r="D15">
-        <v>191.95452820033557</v>
+        <v>207.34544775662562</v>
       </c>
       <c r="E15">
         <v>0.74455</v>
@@ -1038,7 +1038,7 @@
         <v>0.09536374725675746</v>
       </c>
       <c r="D16">
-        <v>316.26494680055663</v>
+        <v>323.16554823117457</v>
       </c>
       <c r="E16">
         <v>0.56711</v>
@@ -1055,7 +1055,7 @@
         <v>0.0991763241670963</v>
       </c>
       <c r="D17">
-        <v>287.7796752604658</v>
+        <v>296.2922741765625</v>
       </c>
       <c r="E17">
         <v>0.62964</v>
@@ -1072,7 +1072,7 @@
         <v>0.09999681463192239</v>
       </c>
       <c r="D18">
-        <v>364.7721024998496</v>
+        <v>383.4756584820521</v>
       </c>
       <c r="E18">
         <v>0.4733</v>
@@ -1089,7 +1089,7 @@
         <v>0.09976297191327567</v>
       </c>
       <c r="D19">
-        <v>269.58237532227673</v>
+        <v>299.7605516866118</v>
       </c>
       <c r="E19">
         <v>0.4305</v>
@@ -1106,7 +1106,7 @@
         <v>0.09954547056259805</v>
       </c>
       <c r="D20">
-        <v>308.91840365753797</v>
+        <v>354.7997530161312</v>
       </c>
       <c r="E20">
         <v>0.39589</v>
@@ -1123,7 +1123,7 @@
         <v>0.09989427628897432</v>
       </c>
       <c r="D21">
-        <v>362.0220146687186</v>
+        <v>402.72347680128</v>
       </c>
       <c r="E21">
         <v>0.2032</v>
@@ -1140,27 +1140,10 @@
         <v>0.0998610593479319</v>
       </c>
       <c r="D22">
-        <v>425.6674446633849</v>
+        <v>462.76450676600865</v>
       </c>
       <c r="E22">
         <v>0.15792</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>-580.8144365459971</v>
-      </c>
-      <c r="C23">
-        <v>0.09307204506322779</v>
-      </c>
-      <c r="D23">
-        <v>421.0702744293204</v>
-      </c>
-      <c r="E23">
-        <v>0.06076</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1153,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1204,7 +1187,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>4.9155051757593995</v>
+        <v>7.182948123291504</v>
       </c>
       <c r="E2">
         <v>80.7774</v>
@@ -1221,7 +1204,7 @@
         <v>0.09851553934052536</v>
       </c>
       <c r="D3">
-        <v>17.933236501831175</v>
+        <v>16.240490617617674</v>
       </c>
       <c r="E3">
         <v>18.67864</v>
@@ -1238,7 +1221,7 @@
         <v>0.090692446692153</v>
       </c>
       <c r="D4">
-        <v>27.061828787084472</v>
+        <v>26.748948180484863</v>
       </c>
       <c r="E4">
         <v>15.45811</v>
@@ -1255,7 +1238,7 @@
         <v>0.09487745468600596</v>
       </c>
       <c r="D5">
-        <v>38.37850187641516</v>
+        <v>32.14585674239441</v>
       </c>
       <c r="E5">
         <v>7.89302</v>
@@ -1272,7 +1255,7 @@
         <v>0.0998794647641545</v>
       </c>
       <c r="D6">
-        <v>44.36442622016687</v>
+        <v>45.831054162590576</v>
       </c>
       <c r="E6">
         <v>6.18304</v>
@@ -1289,7 +1272,7 @@
         <v>0.09575534057644092</v>
       </c>
       <c r="D7">
-        <v>51.85788128398889</v>
+        <v>53.1583882904386</v>
       </c>
       <c r="E7">
         <v>4.20277</v>
@@ -1306,7 +1289,7 @@
         <v>0.09942645052964456</v>
       </c>
       <c r="D8">
-        <v>61.45888832305554</v>
+        <v>63.47130682374585</v>
       </c>
       <c r="E8">
         <v>3.17109</v>
@@ -1323,7 +1306,7 @@
         <v>0.09864691323363967</v>
       </c>
       <c r="D9">
-        <v>74.8558773461377</v>
+        <v>76.18435234951001</v>
       </c>
       <c r="E9">
         <v>2.38071</v>
@@ -1340,7 +1323,7 @@
         <v>0.09988595574953131</v>
       </c>
       <c r="D10">
-        <v>109.60349173580151</v>
+        <v>108.78323816260779</v>
       </c>
       <c r="E10">
         <v>2.25275</v>
@@ -1357,7 +1340,7 @@
         <v>0.0987475358704195</v>
       </c>
       <c r="D11">
-        <v>114.3259419528142</v>
+        <v>119.9965994164574</v>
       </c>
       <c r="E11">
         <v>1.63887</v>
@@ -1374,7 +1357,7 @@
         <v>0.09876973867199287</v>
       </c>
       <c r="D12">
-        <v>144.4481982432865</v>
+        <v>162.03894910320946</v>
       </c>
       <c r="E12">
         <v>1.10707</v>
@@ -1391,7 +1374,7 @@
         <v>0.09986124313121819</v>
       </c>
       <c r="D13">
-        <v>151.8569117034734</v>
+        <v>164.42090436482667</v>
       </c>
       <c r="E13">
         <v>0.90226</v>
@@ -1408,7 +1391,7 @@
         <v>0.09519263938479558</v>
       </c>
       <c r="D14">
-        <v>194.31504027158607</v>
+        <v>215.22636593133717</v>
       </c>
       <c r="E14">
         <v>0.676</v>
@@ -1425,7 +1408,7 @@
         <v>0.09572726980336543</v>
       </c>
       <c r="D15">
-        <v>213.5365129795553</v>
+        <v>238.09006745014503</v>
       </c>
       <c r="E15">
         <v>0.59253</v>
@@ -1442,7 +1425,7 @@
         <v>0.0997761732625546</v>
       </c>
       <c r="D16">
-        <v>215.39461645421264</v>
+        <v>251.4905694773451</v>
       </c>
       <c r="E16">
         <v>0.3177</v>
@@ -1459,7 +1442,7 @@
         <v>0.0995329393020249</v>
       </c>
       <c r="D17">
-        <v>261.147006725267</v>
+        <v>288.26668382427647</v>
       </c>
       <c r="E17">
         <v>0.29005</v>
@@ -1476,7 +1459,7 @@
         <v>0.0991832609818073</v>
       </c>
       <c r="D18">
-        <v>281.9536495888435</v>
+        <v>315.8644430283472</v>
       </c>
       <c r="E18">
         <v>0.14017</v>
@@ -1493,7 +1476,7 @@
         <v>0.09957285428072807</v>
       </c>
       <c r="D19">
-        <v>291.565351460323</v>
+        <v>331.62417354838254</v>
       </c>
       <c r="E19">
         <v>0.04816</v>
@@ -1510,7 +1493,7 @@
         <v>0.09625115521870403</v>
       </c>
       <c r="D20">
-        <v>403.77243360569116</v>
+        <v>461.9770859199823</v>
       </c>
       <c r="E20">
         <v>0.00335</v>
@@ -1527,7 +1510,7 @@
         <v>0.09912362991269931</v>
       </c>
       <c r="D21">
-        <v>369.94303132729954</v>
+        <v>421.75337505920726</v>
       </c>
       <c r="E21">
         <v>0.00408</v>
@@ -1544,27 +1527,10 @@
         <v>0.0960510396865682</v>
       </c>
       <c r="D22">
-        <v>453.1126499403076</v>
+        <v>495.2475851314736</v>
       </c>
       <c r="E22">
         <v>0.00245</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>-576.6464342929337</v>
-      </c>
-      <c r="C23">
-        <v>0.0941482348655452</v>
-      </c>
-      <c r="D23">
-        <v>478.32457841959155</v>
-      </c>
-      <c r="E23">
-        <v>5.0e-5</v>
       </c>
     </row>
   </sheetData>
@@ -1608,7 +1574,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>8.369891175273072</v>
+        <v>11.655224689135377</v>
       </c>
       <c r="E2">
         <v>83.27092</v>
@@ -1625,7 +1591,7 @@
         <v>0.09892825238514394</v>
       </c>
       <c r="D3">
-        <v>17.044790999134154</v>
+        <v>16.051070067875244</v>
       </c>
       <c r="E3">
         <v>19.09284</v>
@@ -1642,7 +1608,7 @@
         <v>0.09941729940196875</v>
       </c>
       <c r="D4">
-        <v>23.655479041852416</v>
+        <v>21.80051773076123</v>
       </c>
       <c r="E4">
         <v>14.12415</v>
@@ -1659,7 +1625,7 @@
         <v>0.09858735074508318</v>
       </c>
       <c r="D5">
-        <v>29.811553489111205</v>
+        <v>31.975144830770873</v>
       </c>
       <c r="E5">
         <v>7.86994</v>
@@ -1676,7 +1642,7 @@
         <v>0.09986681315758641</v>
       </c>
       <c r="D6">
-        <v>41.58169586177405</v>
+        <v>39.86236612542517</v>
       </c>
       <c r="E6">
         <v>6.38461</v>
@@ -1693,7 +1659,7 @@
         <v>0.09848751547841332</v>
       </c>
       <c r="D7">
-        <v>51.61187761164612</v>
+        <v>49.52622475145007</v>
       </c>
       <c r="E7">
         <v>3.92166</v>
@@ -1710,7 +1676,7 @@
         <v>0.09705030668973826</v>
       </c>
       <c r="D8">
-        <v>63.66865861412268</v>
+        <v>57.02202262889709</v>
       </c>
       <c r="E8">
         <v>2.99983</v>
@@ -1727,7 +1693,7 @@
         <v>0.09947758750246202</v>
       </c>
       <c r="D9">
-        <v>70.00833960264917</v>
+        <v>67.46851761403956</v>
       </c>
       <c r="E9">
         <v>2.46727</v>
@@ -1744,7 +1710,7 @@
         <v>0.09974444370157944</v>
       </c>
       <c r="D10">
-        <v>89.66814885544738</v>
+        <v>89.29816908988256</v>
       </c>
       <c r="E10">
         <v>2.37136</v>
@@ -1761,7 +1727,7 @@
         <v>0.09956969648410906</v>
       </c>
       <c r="D11">
-        <v>106.75985216357569</v>
+        <v>103.29723657964855</v>
       </c>
       <c r="E11">
         <v>2.04304</v>
@@ -1778,7 +1744,7 @@
         <v>0.09974176345290224</v>
       </c>
       <c r="D12">
-        <v>150.92748149281334</v>
+        <v>144.1021178063076</v>
       </c>
       <c r="E12">
         <v>0.99173</v>
@@ -1795,7 +1761,7 @@
         <v>0.0988631602905683</v>
       </c>
       <c r="D13">
-        <v>135.23454609915382</v>
+        <v>148.26312858432325</v>
       </c>
       <c r="E13">
         <v>0.93033</v>
@@ -1812,7 +1778,7 @@
         <v>0.09391394418462959</v>
       </c>
       <c r="D14">
-        <v>177.2267291557671</v>
+        <v>185.53472201975586</v>
       </c>
       <c r="E14">
         <v>0.60309</v>
@@ -1829,7 +1795,7 @@
         <v>0.09981788260177604</v>
       </c>
       <c r="D15">
-        <v>198.3492724202389</v>
+        <v>208.2560915033435</v>
       </c>
       <c r="E15">
         <v>0.45795</v>
@@ -1846,7 +1812,7 @@
         <v>0.09976885689185996</v>
       </c>
       <c r="D16">
-        <v>265.8070282230342</v>
+        <v>266.2564014899938</v>
       </c>
       <c r="E16">
         <v>0.26728</v>
@@ -1863,7 +1829,7 @@
         <v>0.09753978168828502</v>
       </c>
       <c r="D17">
-        <v>270.3999045037489</v>
+        <v>273.98498992538634</v>
       </c>
       <c r="E17">
         <v>0.12369</v>
@@ -1880,7 +1846,7 @@
         <v>0.09924002281439442</v>
       </c>
       <c r="D18">
-        <v>236.54182203375757</v>
+        <v>235.8694685547201</v>
       </c>
       <c r="E18">
         <v>0.0221</v>
@@ -1897,7 +1863,7 @@
         <v>0.09650371546963905</v>
       </c>
       <c r="D19">
-        <v>300.4495173372039</v>
+        <v>325.01864476297715</v>
       </c>
       <c r="E19">
         <v>0.00365</v>
@@ -1914,7 +1880,7 @@
         <v>0.09827410201313039</v>
       </c>
       <c r="D20">
-        <v>327.48737579308033</v>
+        <v>353.1145492280873</v>
       </c>
       <c r="E20">
         <v>0.00274</v>
@@ -1931,7 +1897,7 @@
         <v>0.09870562547387886</v>
       </c>
       <c r="D21">
-        <v>378.20982902574855</v>
+        <v>484.1562239315618</v>
       </c>
       <c r="E21">
         <v>0.00104</v>
@@ -1948,7 +1914,7 @@
         <v>0.09657309196333928</v>
       </c>
       <c r="D22">
-        <v>333.42784968250146</v>
+        <v>421.7027051302831</v>
       </c>
       <c r="E22">
         <v>0.00047</v>
@@ -1965,7 +1931,7 @@
         <v>0.09962099060338934</v>
       </c>
       <c r="D23">
-        <v>491.40312434358424</v>
+        <v>525.0527940496623</v>
       </c>
       <c r="E23">
         <v>0.0</v>
@@ -2012,7 +1978,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>9.045783116264282</v>
+        <v>7.7077487368227535</v>
       </c>
       <c r="E2">
         <v>74.93212</v>
@@ -2029,7 +1995,7 @@
         <v>0.0861423638404061</v>
       </c>
       <c r="D3">
-        <v>8.750731593597656</v>
+        <v>11.623333488286866</v>
       </c>
       <c r="E3">
         <v>18.336</v>
@@ -2046,7 +2012,7 @@
         <v>0.09938589093018371</v>
       </c>
       <c r="D4">
-        <v>17.99605229235193</v>
+        <v>21.347238723674437</v>
       </c>
       <c r="E4">
         <v>15.66232</v>
@@ -2063,7 +2029,7 @@
         <v>0.09959514583161794</v>
       </c>
       <c r="D5">
-        <v>33.135457420937016</v>
+        <v>32.36679875423169</v>
       </c>
       <c r="E5">
         <v>10.01955</v>
@@ -2080,7 +2046,7 @@
         <v>0.09939126490026322</v>
       </c>
       <c r="D6">
-        <v>41.86826104806665</v>
+        <v>38.48256443509924</v>
       </c>
       <c r="E6">
         <v>7.78908</v>
@@ -2097,7 +2063,7 @@
         <v>0.09844854653186629</v>
       </c>
       <c r="D7">
-        <v>44.065703550958496</v>
+        <v>43.4850259794779</v>
       </c>
       <c r="E7">
         <v>5.07189</v>
@@ -2114,7 +2080,7 @@
         <v>0.0929202724109508</v>
       </c>
       <c r="D8">
-        <v>55.614746952192746</v>
+        <v>53.75891577659546</v>
       </c>
       <c r="E8">
         <v>3.58077</v>
@@ -2131,7 +2097,7 @@
         <v>0.09938424974446063</v>
       </c>
       <c r="D9">
-        <v>62.12031036957312</v>
+        <v>71.78340971045007</v>
       </c>
       <c r="E9">
         <v>2.90997</v>
@@ -2148,7 +2114,7 @@
         <v>0.09479355247941752</v>
       </c>
       <c r="D10">
-        <v>80.3006523835564</v>
+        <v>85.8038347132113</v>
       </c>
       <c r="E10">
         <v>2.92405</v>
@@ -2165,7 +2131,7 @@
         <v>0.09855404828895448</v>
       </c>
       <c r="D11">
-        <v>98.79027267136938</v>
+        <v>102.52111534099402</v>
       </c>
       <c r="E11">
         <v>2.39826</v>
@@ -2182,7 +2148,7 @@
         <v>0.09940478897674676</v>
       </c>
       <c r="D12">
-        <v>102.22758711706481</v>
+        <v>102.69935597166113</v>
       </c>
       <c r="E12">
         <v>1.61129</v>
@@ -2199,7 +2165,7 @@
         <v>0.09871431049039671</v>
       </c>
       <c r="D13">
-        <v>141.55586491621864</v>
+        <v>152.17533507552614</v>
       </c>
       <c r="E13">
         <v>1.26362</v>
@@ -2216,7 +2182,7 @@
         <v>0.09989361772924088</v>
       </c>
       <c r="D14">
-        <v>146.25057681808423</v>
+        <v>149.7003259365381</v>
       </c>
       <c r="E14">
         <v>1.17057</v>
@@ -2233,7 +2199,7 @@
         <v>0.09909174731447783</v>
       </c>
       <c r="D15">
-        <v>172.6109819536621</v>
+        <v>190.83271391882323</v>
       </c>
       <c r="E15">
         <v>1.01291</v>
@@ -2250,7 +2216,7 @@
         <v>0.09641238603465989</v>
       </c>
       <c r="D16">
-        <v>206.3393297890304</v>
+        <v>219.8443120104874</v>
       </c>
       <c r="E16">
         <v>0.65849</v>
@@ -2267,7 +2233,7 @@
         <v>0.09972744750139734</v>
       </c>
       <c r="D17">
-        <v>290.12695090439036</v>
+        <v>303.18088794270534</v>
       </c>
       <c r="E17">
         <v>0.5402</v>
@@ -2284,7 +2250,7 @@
         <v>0.09797308401283347</v>
       </c>
       <c r="D18">
-        <v>247.58932553790686</v>
+        <v>278.73535233506715</v>
       </c>
       <c r="E18">
         <v>0.55252</v>
@@ -2301,7 +2267,7 @@
         <v>0.09945545106360953</v>
       </c>
       <c r="D19">
-        <v>260.76375781800357</v>
+        <v>287.49417050937524</v>
       </c>
       <c r="E19">
         <v>0.47974</v>
@@ -2318,7 +2284,7 @@
         <v>0.09974584235721332</v>
       </c>
       <c r="D20">
-        <v>377.37555063986537</v>
+        <v>396.02896430249353</v>
       </c>
       <c r="E20">
         <v>0.45855</v>
@@ -2335,7 +2301,7 @@
         <v>0.0982701389909709</v>
       </c>
       <c r="D21">
-        <v>384.82276582329445</v>
+        <v>400.58246777793187</v>
       </c>
       <c r="E21">
         <v>0.33241</v>
@@ -2352,7 +2318,7 @@
         <v>0.09991997939379003</v>
       </c>
       <c r="D22">
-        <v>464.6942695793823</v>
+        <v>474.26296136479897</v>
       </c>
       <c r="E22">
         <v>0.22826</v>
@@ -2369,7 +2335,7 @@
         <v>0.09981916964249778</v>
       </c>
       <c r="D23">
-        <v>484.9845505749646</v>
+        <v>505.2336689212549</v>
       </c>
       <c r="E23">
         <v>0.20327</v>
@@ -2382,7 +2348,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -2416,7 +2382,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>6.420103693575806</v>
+        <v>6.44478593976477</v>
       </c>
       <c r="E2">
         <v>81.90707</v>
@@ -2433,7 +2399,7 @@
         <v>0.092298973603614</v>
       </c>
       <c r="D3">
-        <v>16.847100981010378</v>
+        <v>15.278648134785524</v>
       </c>
       <c r="E3">
         <v>18.442</v>
@@ -2450,7 +2416,7 @@
         <v>0.09956929195463564</v>
       </c>
       <c r="D4">
-        <v>18.02920509524646</v>
+        <v>18.383129647856812</v>
       </c>
       <c r="E4">
         <v>10.89884</v>
@@ -2467,7 +2433,7 @@
         <v>0.09428363639792024</v>
       </c>
       <c r="D5">
-        <v>30.939131166101806</v>
+        <v>35.21496979376538</v>
       </c>
       <c r="E5">
         <v>7.70729</v>
@@ -2484,7 +2450,7 @@
         <v>0.09980559094265223</v>
       </c>
       <c r="D6">
-        <v>39.730323693031984</v>
+        <v>53.11368892407129</v>
       </c>
       <c r="E6">
         <v>5.7202</v>
@@ -2501,7 +2467,7 @@
         <v>0.0863548784831589</v>
       </c>
       <c r="D7">
-        <v>39.98833525810925</v>
+        <v>49.38740594363794</v>
       </c>
       <c r="E7">
         <v>4.79042</v>
@@ -2518,7 +2484,7 @@
         <v>0.09876812908462859</v>
       </c>
       <c r="D8">
-        <v>50.071317291487546</v>
+        <v>74.43326402694568</v>
       </c>
       <c r="E8">
         <v>3.81066</v>
@@ -2535,7 +2501,7 @@
         <v>0.09999962517253558</v>
       </c>
       <c r="D9">
-        <v>62.277457997510865</v>
+        <v>88.32146595337878</v>
       </c>
       <c r="E9">
         <v>2.44597</v>
@@ -2552,7 +2518,7 @@
         <v>0.09786051780128503</v>
       </c>
       <c r="D10">
-        <v>78.15168547430835</v>
+        <v>98.72892089240833</v>
       </c>
       <c r="E10">
         <v>2.29722</v>
@@ -2569,7 +2535,7 @@
         <v>0.09964190434745217</v>
       </c>
       <c r="D11">
-        <v>117.57404829329553</v>
+        <v>142.41753140282617</v>
       </c>
       <c r="E11">
         <v>1.92891</v>
@@ -2586,7 +2552,7 @@
         <v>0.09785467255677115</v>
       </c>
       <c r="D12">
-        <v>109.47338771977991</v>
+        <v>138.22569310926625</v>
       </c>
       <c r="E12">
         <v>1.31186</v>
@@ -2603,7 +2569,7 @@
         <v>0.09777741874249345</v>
       </c>
       <c r="D13">
-        <v>134.76482681046252</v>
+        <v>171.71924583981274</v>
       </c>
       <c r="E13">
         <v>1.2563</v>
@@ -2620,7 +2586,7 @@
         <v>0.09984028461156305</v>
       </c>
       <c r="D14">
-        <v>147.5018737329009</v>
+        <v>188.6576505343385</v>
       </c>
       <c r="E14">
         <v>1.26991</v>
@@ -2637,7 +2603,7 @@
         <v>0.0998133256126922</v>
       </c>
       <c r="D15">
-        <v>212.9388626814486</v>
+        <v>267.9479594951907</v>
       </c>
       <c r="E15">
         <v>0.91068</v>
@@ -2654,7 +2620,7 @@
         <v>0.09858534390328677</v>
       </c>
       <c r="D16">
-        <v>245.67452931349646</v>
+        <v>292.94947268529563</v>
       </c>
       <c r="E16">
         <v>0.6023</v>
@@ -2671,7 +2637,7 @@
         <v>0.09993251782210871</v>
       </c>
       <c r="D17">
-        <v>298.39137834057664</v>
+        <v>334.9297871345143</v>
       </c>
       <c r="E17">
         <v>0.33504</v>
@@ -2688,7 +2654,7 @@
         <v>0.09927707700238558</v>
       </c>
       <c r="D18">
-        <v>233.96184406591553</v>
+        <v>264.4376426124706</v>
       </c>
       <c r="E18">
         <v>0.33319</v>
@@ -2705,7 +2671,7 @@
         <v>0.09495675304673895</v>
       </c>
       <c r="D19">
-        <v>330.4608942115256</v>
+        <v>362.0958301249934</v>
       </c>
       <c r="E19">
         <v>0.06293</v>
@@ -2722,7 +2688,7 @@
         <v>0.09671325794776252</v>
       </c>
       <c r="D20">
-        <v>364.6917621947362</v>
+        <v>405.39430674980116</v>
       </c>
       <c r="E20">
         <v>0.04998</v>
@@ -2739,7 +2705,7 @@
         <v>0.09914686735993061</v>
       </c>
       <c r="D21">
-        <v>359.3147244725598</v>
+        <v>383.5541757496711</v>
       </c>
       <c r="E21">
         <v>0.0458</v>
@@ -2756,27 +2722,10 @@
         <v>0.09664713544605913</v>
       </c>
       <c r="D22">
-        <v>515.0353097966102</v>
+        <v>518.5614832452346</v>
       </c>
       <c r="E22">
         <v>0.01074</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>-591.9840573771119</v>
-      </c>
-      <c r="C23">
-        <v>0.09856798821221097</v>
-      </c>
-      <c r="D23">
-        <v>585.3361107406421</v>
-      </c>
-      <c r="E23">
-        <v>0.00738</v>
       </c>
     </row>
   </sheetData>
@@ -2786,7 +2735,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -2820,7 +2769,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>19.848726626201906</v>
+        <v>11.093736106938598</v>
       </c>
       <c r="E2">
         <v>83.60946</v>
@@ -2837,7 +2786,7 @@
         <v>0.09972128243348365</v>
       </c>
       <c r="D3">
-        <v>19.43917006315845</v>
+        <v>23.950686119844725</v>
       </c>
       <c r="E3">
         <v>17.63267</v>
@@ -2854,7 +2803,7 @@
         <v>0.08400718582557941</v>
       </c>
       <c r="D4">
-        <v>29.170626960928345</v>
+        <v>26.070650518151854</v>
       </c>
       <c r="E4">
         <v>12.57927</v>
@@ -2871,7 +2820,7 @@
         <v>0.09778419512521204</v>
       </c>
       <c r="D5">
-        <v>37.33377530952722</v>
+        <v>35.417913821115235</v>
       </c>
       <c r="E5">
         <v>8.95477</v>
@@ -2888,7 +2837,7 @@
         <v>0.09802066708854455</v>
       </c>
       <c r="D6">
-        <v>45.82962700517871</v>
+        <v>53.21478106724329</v>
       </c>
       <c r="E6">
         <v>6.66577</v>
@@ -2905,7 +2854,7 @@
         <v>0.09897137653960983</v>
       </c>
       <c r="D7">
-        <v>57.092701912521484</v>
+        <v>58.79054400882922</v>
       </c>
       <c r="E7">
         <v>4.23032</v>
@@ -2922,7 +2871,7 @@
         <v>0.09987866793744837</v>
       </c>
       <c r="D8">
-        <v>70.31520546406043</v>
+        <v>65.09338209798975</v>
       </c>
       <c r="E8">
         <v>3.02123</v>
@@ -2939,7 +2888,7 @@
         <v>0.09640724081702891</v>
       </c>
       <c r="D9">
-        <v>72.86607521868505</v>
+        <v>70.30613579539148</v>
       </c>
       <c r="E9">
         <v>1.69196</v>
@@ -2956,7 +2905,7 @@
         <v>0.09833111380576565</v>
       </c>
       <c r="D10">
-        <v>81.55044108143677</v>
+        <v>82.11613438273999</v>
       </c>
       <c r="E10">
         <v>1.30676</v>
@@ -2973,7 +2922,7 @@
         <v>0.09978131928635096</v>
       </c>
       <c r="D11">
-        <v>103.58434331094116</v>
+        <v>109.74793243605042</v>
       </c>
       <c r="E11">
         <v>1.17207</v>
@@ -2990,7 +2939,7 @@
         <v>0.09941741393226147</v>
       </c>
       <c r="D12">
-        <v>159.01751610073535</v>
+        <v>167.90142244968334</v>
       </c>
       <c r="E12">
         <v>0.86982</v>
@@ -3007,7 +2956,7 @@
         <v>0.09140780605500429</v>
       </c>
       <c r="D13">
-        <v>179.52217976880297</v>
+        <v>172.30061976658092</v>
       </c>
       <c r="E13">
         <v>0.77585</v>
@@ -3024,7 +2973,7 @@
         <v>0.09928597159648857</v>
       </c>
       <c r="D14">
-        <v>184.1627098417063</v>
+        <v>200.21579914719092</v>
       </c>
       <c r="E14">
         <v>0.58586</v>
@@ -3041,7 +2990,7 @@
         <v>0.09956537906057443</v>
       </c>
       <c r="D15">
-        <v>186.00613756598497</v>
+        <v>182.37650953000585</v>
       </c>
       <c r="E15">
         <v>0.50298</v>
@@ -3058,7 +3007,7 @@
         <v>0.09963586713093699</v>
       </c>
       <c r="D16">
-        <v>242.0079172397207</v>
+        <v>253.09316471528126</v>
       </c>
       <c r="E16">
         <v>0.31971</v>
@@ -3075,7 +3024,7 @@
         <v>0.09805733772656343</v>
       </c>
       <c r="D17">
-        <v>284.01743218816074</v>
+        <v>300.21923191532323</v>
       </c>
       <c r="E17">
         <v>0.22393</v>
@@ -3092,7 +3041,7 @@
         <v>0.09950825233033873</v>
       </c>
       <c r="D18">
-        <v>276.31662232709914</v>
+        <v>280.22817619308347</v>
       </c>
       <c r="E18">
         <v>0.18934</v>
@@ -3109,7 +3058,7 @@
         <v>0.08877012682239277</v>
       </c>
       <c r="D19">
-        <v>290.70777894812915</v>
+        <v>300.42464729494276</v>
       </c>
       <c r="E19">
         <v>0.15491</v>
@@ -3126,7 +3075,7 @@
         <v>0.09958997347607604</v>
       </c>
       <c r="D20">
-        <v>389.4162703875134</v>
+        <v>399.7802702069972</v>
       </c>
       <c r="E20">
         <v>0.06346</v>
@@ -3143,7 +3092,7 @@
         <v>0.09960056216626427</v>
       </c>
       <c r="D21">
-        <v>407.96875104562633</v>
+        <v>420.22210584746875</v>
       </c>
       <c r="E21">
         <v>0.03965</v>
@@ -3160,27 +3109,10 @@
         <v>0.0983380875359527</v>
       </c>
       <c r="D22">
-        <v>402.56753266935425</v>
+        <v>404.6635230883774</v>
       </c>
       <c r="E22">
         <v>0.00793</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>-604.080650204849</v>
-      </c>
-      <c r="C23">
-        <v>0.0977086974433774</v>
-      </c>
-      <c r="D23">
-        <v>410.8009080912522</v>
-      </c>
-      <c r="E23">
-        <v>0.00541</v>
       </c>
     </row>
   </sheetData>
@@ -3224,7 +3156,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>9.842844464363525</v>
+        <v>7.427864313183472</v>
       </c>
       <c r="E2">
         <v>75.28678</v>
@@ -3241,7 +3173,7 @@
         <v>0.09478157568611238</v>
       </c>
       <c r="D3">
-        <v>17.213209263604003</v>
+        <v>16.772161539806152</v>
       </c>
       <c r="E3">
         <v>17.97462</v>
@@ -3258,7 +3190,7 @@
         <v>0.09963580766568637</v>
       </c>
       <c r="D4">
-        <v>21.63047710719055</v>
+        <v>18.126129210464235</v>
       </c>
       <c r="E4">
         <v>14.13784</v>
@@ -3275,7 +3207,7 @@
         <v>0.09619094265890424</v>
       </c>
       <c r="D5">
-        <v>37.31015795990149</v>
+        <v>33.21243150595032</v>
       </c>
       <c r="E5">
         <v>8.74992</v>
@@ -3292,7 +3224,7 @@
         <v>0.09365320878618123</v>
       </c>
       <c r="D6">
-        <v>49.56267578276562</v>
+        <v>39.90866910925708</v>
       </c>
       <c r="E6">
         <v>6.90906</v>
@@ -3309,7 +3241,7 @@
         <v>0.09890815131341903</v>
       </c>
       <c r="D7">
-        <v>45.79231831197876</v>
+        <v>48.835463719256225</v>
       </c>
       <c r="E7">
         <v>5.02228</v>
@@ -3326,7 +3258,7 @@
         <v>0.0950930294385744</v>
       </c>
       <c r="D8">
-        <v>68.6051825464065</v>
+        <v>65.00479046572046</v>
       </c>
       <c r="E8">
         <v>4.48795</v>
@@ -3343,7 +3275,7 @@
         <v>0.09909704077474783</v>
       </c>
       <c r="D9">
-        <v>75.51451134863453</v>
+        <v>73.8684696797998</v>
       </c>
       <c r="E9">
         <v>3.48675</v>
@@ -3360,7 +3292,7 @@
         <v>0.09977428652333514</v>
       </c>
       <c r="D10">
-        <v>87.98212529091504</v>
+        <v>93.5282755771753</v>
       </c>
       <c r="E10">
         <v>2.94508</v>
@@ -3377,7 +3309,7 @@
         <v>0.09950441123043686</v>
       </c>
       <c r="D11">
-        <v>136.2297583560625</v>
+        <v>129.9854047365968</v>
       </c>
       <c r="E11">
         <v>2.5786</v>
@@ -3394,7 +3326,7 @@
         <v>0.09930771167252998</v>
       </c>
       <c r="D12">
-        <v>160.34340616455017</v>
+        <v>148.00371386789075</v>
       </c>
       <c r="E12">
         <v>1.95495</v>
@@ -3411,7 +3343,7 @@
         <v>0.09942670479356504</v>
       </c>
       <c r="D13">
-        <v>144.93883953643555</v>
+        <v>168.53593603365528</v>
       </c>
       <c r="E13">
         <v>1.69318</v>
@@ -3428,7 +3360,7 @@
         <v>0.09756161763175945</v>
       </c>
       <c r="D14">
-        <v>169.6476074601721</v>
+        <v>180.90603277495177</v>
       </c>
       <c r="E14">
         <v>1.28676</v>
@@ -3445,7 +3377,7 @@
         <v>0.098284931327572</v>
       </c>
       <c r="D15">
-        <v>182.62381392196556</v>
+        <v>199.10838759728688</v>
       </c>
       <c r="E15">
         <v>0.9383</v>
@@ -3462,7 +3394,7 @@
         <v>0.09981374255716319</v>
       </c>
       <c r="D16">
-        <v>227.68444161653343</v>
+        <v>224.93091900473718</v>
       </c>
       <c r="E16">
         <v>0.72308</v>
@@ -3479,7 +3411,7 @@
         <v>0.09911207744677768</v>
       </c>
       <c r="D17">
-        <v>297.79121503613817</v>
+        <v>285.0538617252456</v>
       </c>
       <c r="E17">
         <v>0.70169</v>
@@ -3496,7 +3428,7 @@
         <v>0.09999546761729738</v>
       </c>
       <c r="D18">
-        <v>296.58485485929197</v>
+        <v>297.73172070376785</v>
       </c>
       <c r="E18">
         <v>0.56245</v>
@@ -3513,7 +3445,7 @@
         <v>0.0994274002318338</v>
       </c>
       <c r="D19">
-        <v>338.61863134477846</v>
+        <v>332.13078560502123</v>
       </c>
       <c r="E19">
         <v>0.52593</v>
@@ -3530,7 +3462,7 @@
         <v>0.09862763155803385</v>
       </c>
       <c r="D20">
-        <v>366.7794111455077</v>
+        <v>389.3999688856427</v>
       </c>
       <c r="E20">
         <v>0.30612</v>
@@ -3547,7 +3479,7 @@
         <v>0.09981059722521815</v>
       </c>
       <c r="D21">
-        <v>465.19284374525307</v>
+        <v>510.0635529139336</v>
       </c>
       <c r="E21">
         <v>0.28367</v>
@@ -3564,7 +3496,7 @@
         <v>0.09908442578048601</v>
       </c>
       <c r="D22">
-        <v>425.62724307734766</v>
+        <v>479.5247365011931</v>
       </c>
       <c r="E22">
         <v>0.18629</v>
@@ -3577,7 +3509,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -3611,7 +3543,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>9.050047086697997</v>
+        <v>12.259458724323121</v>
       </c>
       <c r="E2">
         <v>82.712</v>
@@ -3628,7 +3560,7 @@
         <v>0.08539169757838362</v>
       </c>
       <c r="D3">
-        <v>9.504234481734619</v>
+        <v>10.957476878001465</v>
       </c>
       <c r="E3">
         <v>17.82575</v>
@@ -3645,7 +3577,7 @@
         <v>0.09938164244383409</v>
       </c>
       <c r="D4">
-        <v>24.163998366307617</v>
+        <v>22.761429072362063</v>
       </c>
       <c r="E4">
         <v>13.4644</v>
@@ -3662,7 +3594,7 @@
         <v>0.099885122395139</v>
       </c>
       <c r="D5">
-        <v>31.962451740371094</v>
+        <v>34.589030985320804</v>
       </c>
       <c r="E5">
         <v>8.09363</v>
@@ -3679,7 +3611,7 @@
         <v>0.09997594900665951</v>
       </c>
       <c r="D6">
-        <v>43.02792970952234</v>
+        <v>44.986726729933594</v>
       </c>
       <c r="E6">
         <v>5.90245</v>
@@ -3696,7 +3628,7 @@
         <v>0.09990847847065347</v>
       </c>
       <c r="D7">
-        <v>57.427518476184936</v>
+        <v>59.43364591514453</v>
       </c>
       <c r="E7">
         <v>5.968</v>
@@ -3713,7 +3645,7 @@
         <v>0.09969959380306051</v>
       </c>
       <c r="D8">
-        <v>63.73985768515051</v>
+        <v>68.74271316073218</v>
       </c>
       <c r="E8">
         <v>3.38723</v>
@@ -3730,7 +3662,7 @@
         <v>0.09986390547958009</v>
       </c>
       <c r="D9">
-        <v>77.26577420734192</v>
+        <v>84.31112609692066</v>
       </c>
       <c r="E9">
         <v>3.43774</v>
@@ -3747,7 +3679,7 @@
         <v>0.09968205005925886</v>
       </c>
       <c r="D10">
-        <v>87.07773092123986</v>
+        <v>95.86983852485852</v>
       </c>
       <c r="E10">
         <v>2.9442</v>
@@ -3764,7 +3696,7 @@
         <v>0.09988151827710517</v>
       </c>
       <c r="D11">
-        <v>105.09305207035193</v>
+        <v>115.52659617969653</v>
       </c>
       <c r="E11">
         <v>2.51807</v>
@@ -3781,7 +3713,7 @@
         <v>0.09398185443591395</v>
       </c>
       <c r="D12">
-        <v>124.43155543300708</v>
+        <v>135.4416458867217</v>
       </c>
       <c r="E12">
         <v>2.02254</v>
@@ -3798,7 +3730,7 @@
         <v>0.0998798575229384</v>
       </c>
       <c r="D13">
-        <v>154.18276636160692</v>
+        <v>163.4176859241361</v>
       </c>
       <c r="E13">
         <v>1.40545</v>
@@ -3815,7 +3747,7 @@
         <v>0.09979726341347589</v>
       </c>
       <c r="D14">
-        <v>173.53089201414247</v>
+        <v>188.16422555588562</v>
       </c>
       <c r="E14">
         <v>1.2628</v>
@@ -3832,7 +3764,7 @@
         <v>0.08964845074361828</v>
       </c>
       <c r="D15">
-        <v>234.5408026672793</v>
+        <v>258.23229447430117</v>
       </c>
       <c r="E15">
         <v>1.15696</v>
@@ -3849,7 +3781,7 @@
         <v>0.09927826484825653</v>
       </c>
       <c r="D16">
-        <v>222.1593208648872</v>
+        <v>248.02704982139784</v>
       </c>
       <c r="E16">
         <v>0.46126</v>
@@ -3866,7 +3798,7 @@
         <v>0.09989442023184364</v>
       </c>
       <c r="D17">
-        <v>291.0952106025647</v>
+        <v>313.4028017605117</v>
       </c>
       <c r="E17">
         <v>0.37923</v>
@@ -3883,7 +3815,7 @@
         <v>0.09978920232251444</v>
       </c>
       <c r="D18">
-        <v>283.85519984857115</v>
+        <v>316.4987156461036</v>
       </c>
       <c r="E18">
         <v>0.20103</v>
@@ -3900,7 +3832,7 @@
         <v>0.09962140951022413</v>
       </c>
       <c r="D19">
-        <v>303.6833663225474</v>
+        <v>342.38736272074925</v>
       </c>
       <c r="E19">
         <v>0.17438</v>
@@ -3917,7 +3849,7 @@
         <v>0.09481617583051012</v>
       </c>
       <c r="D20">
-        <v>352.0406700098683</v>
+        <v>394.2110856582538</v>
       </c>
       <c r="E20">
         <v>0.15477</v>
@@ -3934,7 +3866,7 @@
         <v>0.09987251629388286</v>
       </c>
       <c r="D21">
-        <v>366.11066047741406</v>
+        <v>412.33748563763953</v>
       </c>
       <c r="E21">
         <v>0.13177</v>
@@ -3951,27 +3883,10 @@
         <v>0.09935200217396878</v>
       </c>
       <c r="D22">
-        <v>429.7681037981638</v>
+        <v>481.7390909621355</v>
       </c>
       <c r="E22">
         <v>0.10169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>-572.5503619636811</v>
-      </c>
-      <c r="C23">
-        <v>0.09777649716308495</v>
-      </c>
-      <c r="D23">
-        <v>448.5991962526566</v>
-      </c>
-      <c r="E23">
-        <v>0.04503</v>
       </c>
     </row>
   </sheetData>
@@ -4015,7 +3930,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>10.495896195086182</v>
+        <v>9.405949995501343</v>
       </c>
       <c r="E2">
         <v>82.59206</v>
@@ -4032,7 +3947,7 @@
         <v>0.09734504069721028</v>
       </c>
       <c r="D3">
-        <v>17.475996664976684</v>
+        <v>17.155394491230346</v>
       </c>
       <c r="E3">
         <v>19.829</v>
@@ -4049,7 +3964,7 @@
         <v>0.058962543991582704</v>
       </c>
       <c r="D4">
-        <v>22.205647529731202</v>
+        <v>24.210849848976686</v>
       </c>
       <c r="E4">
         <v>11.60693</v>
@@ -4066,7 +3981,7 @@
         <v>0.0988327918143238</v>
       </c>
       <c r="D5">
-        <v>33.98787835463977</v>
+        <v>36.97580994993298</v>
       </c>
       <c r="E5">
         <v>8.3799</v>
@@ -4083,7 +3998,7 @@
         <v>0.09884958480679452</v>
       </c>
       <c r="D6">
-        <v>47.69591913871081</v>
+        <v>52.833661506088866</v>
       </c>
       <c r="E6">
         <v>6.43365</v>
@@ -4100,7 +4015,7 @@
         <v>0.08980955585153727</v>
       </c>
       <c r="D7">
-        <v>55.28417366222998</v>
+        <v>55.44931626928772</v>
       </c>
       <c r="E7">
         <v>3.98201</v>
@@ -4117,7 +4032,7 @@
         <v>0.09380895790079055</v>
       </c>
       <c r="D8">
-        <v>66.66411703464075</v>
+        <v>68.87233211234607</v>
       </c>
       <c r="E8">
         <v>2.94773</v>
@@ -4134,7 +4049,7 @@
         <v>0.09985481803419151</v>
       </c>
       <c r="D9">
-        <v>93.29547099047132</v>
+        <v>96.38139643774694</v>
       </c>
       <c r="E9">
         <v>2.33036</v>
@@ -4151,7 +4066,7 @@
         <v>0.09942967942402606</v>
       </c>
       <c r="D10">
-        <v>99.55766282070874</v>
+        <v>108.59635689994617</v>
       </c>
       <c r="E10">
         <v>1.9773</v>
@@ -4168,7 +4083,7 @@
         <v>0.09962639765465639</v>
       </c>
       <c r="D11">
-        <v>117.84449146915075</v>
+        <v>125.32188432462134</v>
       </c>
       <c r="E11">
         <v>1.33026</v>
@@ -4185,7 +4100,7 @@
         <v>0.09957439111851112</v>
       </c>
       <c r="D12">
-        <v>120.98198584138073</v>
+        <v>132.9306082379796</v>
       </c>
       <c r="E12">
         <v>0.84751</v>
@@ -4202,7 +4117,7 @@
         <v>0.09660255358827315</v>
       </c>
       <c r="D13">
-        <v>148.2964123896931</v>
+        <v>154.09234871468541</v>
       </c>
       <c r="E13">
         <v>0.73967</v>
@@ -4219,7 +4134,7 @@
         <v>0.09980178274208971</v>
       </c>
       <c r="D14">
-        <v>164.61336902532508</v>
+        <v>187.57400848962976</v>
       </c>
       <c r="E14">
         <v>0.60133</v>
@@ -4236,7 +4151,7 @@
         <v>0.09931862206896372</v>
       </c>
       <c r="D15">
-        <v>195.39065570517164</v>
+        <v>209.9834203565763</v>
       </c>
       <c r="E15">
         <v>0.39598</v>
@@ -4253,7 +4168,7 @@
         <v>0.09829344480643519</v>
       </c>
       <c r="D16">
-        <v>252.50862807998303</v>
+        <v>277.7629562342921</v>
       </c>
       <c r="E16">
         <v>0.26998</v>
@@ -4270,7 +4185,7 @@
         <v>0.09859129489949794</v>
       </c>
       <c r="D17">
-        <v>281.46743753903684</v>
+        <v>319.6551440147577</v>
       </c>
       <c r="E17">
         <v>0.19353</v>
@@ -4287,7 +4202,7 @@
         <v>0.09463045196066623</v>
       </c>
       <c r="D18">
-        <v>290.6610221781803</v>
+        <v>318.09902070386033</v>
       </c>
       <c r="E18">
         <v>0.13772</v>
@@ -4304,7 +4219,7 @@
         <v>0.09908330898855822</v>
       </c>
       <c r="D19">
-        <v>325.6398789867006</v>
+        <v>351.8863939115463</v>
       </c>
       <c r="E19">
         <v>0.05594</v>
@@ -4321,7 +4236,7 @@
         <v>0.09900364210007404</v>
       </c>
       <c r="D20">
-        <v>346.0909741533751</v>
+        <v>392.0339265237184</v>
       </c>
       <c r="E20">
         <v>0.05235</v>
@@ -4338,7 +4253,7 @@
         <v>0.09127466594490183</v>
       </c>
       <c r="D21">
-        <v>508.77402927055846</v>
+        <v>553.2225856029542</v>
       </c>
       <c r="E21">
         <v>0.00867</v>
@@ -4355,7 +4270,7 @@
         <v>0.09944079709875271</v>
       </c>
       <c r="D22">
-        <v>524.011024441073</v>
+        <v>572.0063128399929</v>
       </c>
       <c r="E22">
         <v>0.00421</v>
@@ -4402,7 +4317,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>10.325030147947388</v>
+        <v>12.728275198979004</v>
       </c>
       <c r="E2">
         <v>83.5153</v>
@@ -4419,7 +4334,7 @@
         <v>0.09813931062988354</v>
       </c>
       <c r="D3">
-        <v>16.52052012861267</v>
+        <v>18.786108373982177</v>
       </c>
       <c r="E3">
         <v>19.03601</v>
@@ -4436,7 +4351,7 @@
         <v>0.0996258827685648</v>
       </c>
       <c r="D4">
-        <v>23.95970367314441</v>
+        <v>25.992084206175782</v>
       </c>
       <c r="E4">
         <v>14.4689</v>
@@ -4453,7 +4368,7 @@
         <v>0.09961033195462038</v>
       </c>
       <c r="D5">
-        <v>34.31519368663855</v>
+        <v>31.426677416601073</v>
       </c>
       <c r="E5">
         <v>6.88859</v>
@@ -4470,7 +4385,7 @@
         <v>0.09390263230225653</v>
       </c>
       <c r="D6">
-        <v>44.87204320206299</v>
+        <v>43.79730176744373</v>
       </c>
       <c r="E6">
         <v>5.11662</v>
@@ -4487,7 +4402,7 @@
         <v>0.0978695726796114</v>
       </c>
       <c r="D7">
-        <v>49.569511616510745</v>
+        <v>47.86779094597888</v>
       </c>
       <c r="E7">
         <v>4.34611</v>
@@ -4504,7 +4419,7 @@
         <v>0.09827704381400237</v>
       </c>
       <c r="D8">
-        <v>59.706181519871585</v>
+        <v>69.19519658939832</v>
       </c>
       <c r="E8">
         <v>3.14892</v>
@@ -4521,7 +4436,7 @@
         <v>0.09808571444014781</v>
       </c>
       <c r="D9">
-        <v>75.64248589772326</v>
+        <v>91.9983607673136</v>
       </c>
       <c r="E9">
         <v>2.00367</v>
@@ -4538,7 +4453,7 @@
         <v>0.09982961344147863</v>
       </c>
       <c r="D10">
-        <v>94.34821813400842</v>
+        <v>111.35930152445093</v>
       </c>
       <c r="E10">
         <v>1.39743</v>
@@ -4555,7 +4470,7 @@
         <v>0.09983735440940496</v>
       </c>
       <c r="D11">
-        <v>107.31832033959253</v>
+        <v>123.60657532200122</v>
       </c>
       <c r="E11">
         <v>1.13953</v>
@@ -4572,7 +4487,7 @@
         <v>0.09897163365443447</v>
       </c>
       <c r="D12">
-        <v>149.1205101286791</v>
+        <v>190.320542288558</v>
       </c>
       <c r="E12">
         <v>0.9291</v>
@@ -4589,7 +4504,7 @@
         <v>0.09044061243988225</v>
       </c>
       <c r="D13">
-        <v>139.82178359003393</v>
+        <v>163.11690566840895</v>
       </c>
       <c r="E13">
         <v>0.67374</v>
@@ -4606,7 +4521,7 @@
         <v>0.0983046666896302</v>
       </c>
       <c r="D14">
-        <v>216.1694877011448</v>
+        <v>237.87419702244262</v>
       </c>
       <c r="E14">
         <v>0.5778</v>
@@ -4623,7 +4538,7 @@
         <v>0.09989903168211234</v>
       </c>
       <c r="D15">
-        <v>216.55063686773792</v>
+        <v>231.5420466863495</v>
       </c>
       <c r="E15">
         <v>0.15218</v>
@@ -4640,7 +4555,7 @@
         <v>0.09989050823992895</v>
       </c>
       <c r="D16">
-        <v>257.01821148312865</v>
+        <v>285.2328873314512</v>
       </c>
       <c r="E16">
         <v>0.14884</v>
@@ -4657,7 +4572,7 @@
         <v>0.09611586734363156</v>
       </c>
       <c r="D17">
-        <v>276.07887318102524</v>
+        <v>302.76360239550036</v>
       </c>
       <c r="E17">
         <v>0.13859</v>
@@ -4674,7 +4589,7 @@
         <v>0.09744744609907578</v>
       </c>
       <c r="D18">
-        <v>333.2209372076034</v>
+        <v>357.4373970741675</v>
       </c>
       <c r="E18">
         <v>0.07295</v>
@@ -4691,7 +4606,7 @@
         <v>0.09816394257986097</v>
       </c>
       <c r="D19">
-        <v>298.20087257555116</v>
+        <v>322.57048677985705</v>
       </c>
       <c r="E19">
         <v>0.04071</v>
@@ -4708,7 +4623,7 @@
         <v>0.09943837013919792</v>
       </c>
       <c r="D20">
-        <v>350.14902076176014</v>
+        <v>378.6198531849266</v>
       </c>
       <c r="E20">
         <v>0.0</v>
